--- a/data/trans_orig/P15D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A46A7A1-4399-42CC-9FFF-1B7AC6BF24C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF0AE74-1F2E-41D0-A196-454629353CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0414A82-631F-4577-B45F-E88260298B70}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F73DABF-E51A-4F36-BE56-E75224A0CA8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
   <si>
     <t>Población según si dicho accidente se produjo dentro de su jornada laboral en 2007 (Tasa respuesta: 1,4%)</t>
   </si>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,71%</t>
+    <t>26,71%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>64,45%</t>
+    <t>67,67%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>91,44%</t>
   </si>
   <si>
-    <t>71,29%</t>
+    <t>73,29%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>83,4%</t>
   </si>
   <si>
-    <t>35,55%</t>
+    <t>32,33%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,49 +131,49 @@
     <t>30,07%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
   </si>
   <si>
     <t>26,44%</t>
   </si>
   <si>
-    <t>65,84%</t>
+    <t>65,39%</t>
   </si>
   <si>
     <t>28,82%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>73,56%</t>
   </si>
   <si>
-    <t>34,16%</t>
+    <t>34,61%</t>
   </si>
   <si>
     <t>71,18%</t>
   </si>
   <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -182,7 +182,7 @@
     <t>12,9%</t>
   </si>
   <si>
-    <t>56,35%</t>
+    <t>57,38%</t>
   </si>
   <si>
     <t>25,39%</t>
@@ -191,13 +191,13 @@
     <t>17,35%</t>
   </si>
   <si>
-    <t>51,42%</t>
+    <t>46,31%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>43,65%</t>
+    <t>42,62%</t>
   </si>
   <si>
     <t>74,61%</t>
@@ -206,7 +206,7 @@
     <t>82,65%</t>
   </si>
   <si>
-    <t>48,58%</t>
+    <t>53,69%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,7 +248,7 @@
     <t>35,8%</t>
   </si>
   <si>
-    <t>82,16%</t>
+    <t>82,39%</t>
   </si>
   <si>
     <t>34,9%</t>
@@ -257,13 +257,16 @@
     <t>35,49%</t>
   </si>
   <si>
-    <t>74,68%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>17,84%</t>
+    <t>17,61%</t>
   </si>
   <si>
     <t>65,1%</t>
@@ -272,7 +275,10 @@
     <t>64,51%</t>
   </si>
   <si>
-    <t>25,32%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -314,55 +320,55 @@
     <t>19,27%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -777,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB3CE5F-9B84-434D-AE35-C1E7EF141F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCB4F88-6014-4CE4-B7CA-0315A8B0DCA3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1554,10 +1560,10 @@
         <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,10 +1578,10 @@
         <v>3554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>22</v>
@@ -1587,7 +1593,7 @@
         <v>1945</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
@@ -1602,13 +1608,13 @@
         <v>5499</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,7 +1670,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1679,10 +1685,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1691,13 +1697,13 @@
         <v>931</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1706,13 +1712,13 @@
         <v>931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,7 +1736,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>28</v>
@@ -1742,10 +1748,10 @@
         <v>8338</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -1757,10 +1763,10 @@
         <v>14398</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>22</v>
@@ -1831,13 +1837,13 @@
         <v>11571</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -1846,13 +1852,13 @@
         <v>7624</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -1861,13 +1867,13 @@
         <v>19196</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1888,13 @@
         <v>48490</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -1897,13 +1903,13 @@
         <v>28192</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -1912,13 +1918,13 @@
         <v>76682</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,7 +1980,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF0AE74-1F2E-41D0-A196-454629353CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B5D05FA-4734-4BB5-B2E3-949E3EAEBA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F73DABF-E51A-4F36-BE56-E75224A0CA8F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D8F38F96-AC42-4395-9AB8-7782F1DCD81E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,71%</t>
+    <t>28,15%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>67,67%</t>
+    <t>67,83%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>91,44%</t>
   </si>
   <si>
-    <t>73,29%</t>
+    <t>71,85%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>83,4%</t>
   </si>
   <si>
-    <t>32,33%</t>
+    <t>32,17%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,49 +131,49 @@
     <t>30,07%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
   </si>
   <si>
     <t>26,44%</t>
   </si>
   <si>
-    <t>65,39%</t>
+    <t>64,59%</t>
   </si>
   <si>
     <t>28,82%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>73,56%</t>
   </si>
   <si>
-    <t>34,61%</t>
+    <t>35,41%</t>
   </si>
   <si>
     <t>71,18%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -182,7 +182,7 @@
     <t>12,9%</t>
   </si>
   <si>
-    <t>57,38%</t>
+    <t>57,13%</t>
   </si>
   <si>
     <t>25,39%</t>
@@ -191,13 +191,13 @@
     <t>17,35%</t>
   </si>
   <si>
-    <t>46,31%</t>
+    <t>53,53%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>42,62%</t>
+    <t>42,87%</t>
   </si>
   <si>
     <t>74,61%</t>
@@ -206,7 +206,7 @@
     <t>82,65%</t>
   </si>
   <si>
-    <t>53,69%</t>
+    <t>46,47%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -218,13 +218,13 @@
     <t>26,8%</t>
   </si>
   <si>
-    <t>85,58%</t>
+    <t>85,09%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>81,12%</t>
+    <t>81,08%</t>
   </si>
   <si>
     <t>36,02%</t>
@@ -233,13 +233,13 @@
     <t>73,2%</t>
   </si>
   <si>
-    <t>14,42%</t>
+    <t>14,91%</t>
   </si>
   <si>
     <t>59,87%</t>
   </si>
   <si>
-    <t>18,88%</t>
+    <t>18,92%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -257,10 +257,10 @@
     <t>35,49%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>64,2%</t>
@@ -275,10 +275,10 @@
     <t>64,51%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -293,13 +293,13 @@
     <t>10,04%</t>
   </si>
   <si>
-    <t>46,02%</t>
+    <t>44,91%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>26,82%</t>
+    <t>33,06%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -308,67 +308,67 @@
     <t>89,96%</t>
   </si>
   <si>
-    <t>53,98%</t>
+    <t>55,09%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>73,18%</t>
+    <t>66,94%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCB4F88-6014-4CE4-B7CA-0315A8B0DCA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95299ED3-56B2-4842-8762-EE3E20166CE6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B5D05FA-4734-4BB5-B2E3-949E3EAEBA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C500E5-4018-4D6E-8354-446147F60C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D8F38F96-AC42-4395-9AB8-7782F1DCD81E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26BF1D63-8C63-4FE0-A6F3-05272ADAB40C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
   <si>
     <t>Población según si dicho accidente se produjo dentro de su jornada laboral en 2007 (Tasa respuesta: 1,4%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>8,56%</t>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,15%</t>
+    <t>28,71%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>67,83%</t>
+    <t>64,45%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>91,44%</t>
   </si>
   <si>
-    <t>71,85%</t>
+    <t>71,29%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>83,4%</t>
   </si>
   <si>
-    <t>32,17%</t>
+    <t>35,55%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,49 +131,49 @@
     <t>30,07%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
   </si>
   <si>
     <t>26,44%</t>
   </si>
   <si>
-    <t>64,59%</t>
+    <t>65,84%</t>
   </si>
   <si>
     <t>28,82%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>73,56%</t>
   </si>
   <si>
-    <t>35,41%</t>
+    <t>34,16%</t>
   </si>
   <si>
     <t>71,18%</t>
   </si>
   <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -182,7 +182,7 @@
     <t>12,9%</t>
   </si>
   <si>
-    <t>57,13%</t>
+    <t>56,35%</t>
   </si>
   <si>
     <t>25,39%</t>
@@ -191,13 +191,13 @@
     <t>17,35%</t>
   </si>
   <si>
-    <t>53,53%</t>
+    <t>51,42%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>42,87%</t>
+    <t>43,65%</t>
   </si>
   <si>
     <t>74,61%</t>
@@ -206,7 +206,7 @@
     <t>82,65%</t>
   </si>
   <si>
-    <t>46,47%</t>
+    <t>48,58%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -218,13 +218,13 @@
     <t>26,8%</t>
   </si>
   <si>
-    <t>85,09%</t>
+    <t>85,58%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>81,08%</t>
+    <t>81,12%</t>
   </si>
   <si>
     <t>36,02%</t>
@@ -233,13 +233,13 @@
     <t>73,2%</t>
   </si>
   <si>
-    <t>14,91%</t>
+    <t>14,42%</t>
   </si>
   <si>
     <t>59,87%</t>
   </si>
   <si>
-    <t>18,92%</t>
+    <t>18,88%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -248,7 +248,7 @@
     <t>35,8%</t>
   </si>
   <si>
-    <t>82,39%</t>
+    <t>82,16%</t>
   </si>
   <si>
     <t>34,9%</t>
@@ -257,16 +257,13 @@
     <t>35,49%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>74,68%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>17,61%</t>
+    <t>17,84%</t>
   </si>
   <si>
     <t>65,1%</t>
@@ -275,10 +272,7 @@
     <t>64,51%</t>
   </si>
   <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>25,32%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -293,13 +287,13 @@
     <t>10,04%</t>
   </si>
   <si>
-    <t>44,91%</t>
+    <t>46,02%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>33,06%</t>
+    <t>26,82%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -308,67 +302,67 @@
     <t>89,96%</t>
   </si>
   <si>
-    <t>55,09%</t>
+    <t>53,98%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>66,94%</t>
+    <t>73,18%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95299ED3-56B2-4842-8762-EE3E20166CE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91027597-3741-4FB4-9F03-C455786333CD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1560,10 +1554,10 @@
         <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,10 +1572,10 @@
         <v>3554</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>22</v>
@@ -1593,7 +1587,7 @@
         <v>1945</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
@@ -1608,13 +1602,13 @@
         <v>5499</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,7 +1664,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1685,10 +1679,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1697,13 +1691,13 @@
         <v>931</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1712,13 +1706,13 @@
         <v>931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,7 +1730,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>28</v>
@@ -1748,10 +1742,10 @@
         <v>8338</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -1763,10 +1757,10 @@
         <v>14398</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>22</v>
@@ -1837,13 +1831,13 @@
         <v>11571</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -1852,13 +1846,13 @@
         <v>7624</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -1867,13 +1861,13 @@
         <v>19196</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1882,13 @@
         <v>48490</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -1903,13 +1897,13 @@
         <v>28192</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -1918,13 +1912,13 @@
         <v>76682</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,7 +1974,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C500E5-4018-4D6E-8354-446147F60C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{668AC26C-0C27-4EC3-BB60-B160EA0BB71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26BF1D63-8C63-4FE0-A6F3-05272ADAB40C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9DC075D5-A997-4757-955D-7FC633791782}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="115">
   <si>
     <t>Población según si dicho accidente se produjo dentro de su jornada laboral en 2007 (Tasa respuesta: 1,4%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -125,7 +125,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>30,07%</t>
@@ -176,7 +176,7 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>12,9%</t>
@@ -209,7 +209,7 @@
     <t>48,58%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>63,98%</t>
@@ -242,7 +242,7 @@
     <t>18,88%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>35,8%</t>
@@ -275,40 +275,55 @@
     <t>25,32%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>19,27%</t>
@@ -777,8 +792,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91027597-3741-4FB4-9F03-C455786333CD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C015EA7-2815-47BF-A0F0-20B16D9F6BB7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1721,10 +1736,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>6060</v>
+        <v>2877</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>22</v>
@@ -1736,10 +1751,10 @@
         <v>28</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>8338</v>
+        <v>3643</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>87</v>
@@ -1751,10 +1766,10 @@
         <v>22</v>
       </c>
       <c r="M20" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>14398</v>
+        <v>6520</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>89</v>
@@ -1772,10 +1787,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>6060</v>
+        <v>2877</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -1787,10 +1802,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7">
-        <v>9269</v>
+        <v>4574</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -1802,10 +1817,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N21" s="7">
-        <v>15329</v>
+        <v>7451</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -1819,55 +1834,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>11571</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="H22" s="7">
-        <v>7</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7624</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="7">
-        <v>17</v>
-      </c>
-      <c r="N22" s="7">
-        <v>19196</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,49 +1891,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>48490</v>
+        <v>3183</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="H23" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>28192</v>
+        <v>4695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="M23" s="7">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>76682</v>
+        <v>7878</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,63 +1942,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3183</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4695</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>7</v>
+      </c>
+      <c r="N24" s="7">
+        <v>7878</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11571</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7624</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="7">
+        <v>17</v>
+      </c>
+      <c r="N25" s="7">
+        <v>19196</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>46</v>
+      </c>
+      <c r="D26" s="7">
+        <v>48490</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="7">
+        <v>28</v>
+      </c>
+      <c r="I26" s="7">
+        <v>28192</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="7">
+        <v>74</v>
+      </c>
+      <c r="N26" s="7">
+        <v>76682</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>56</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>60061</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>35</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>35816</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>91</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>95878</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>109</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
